--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H2">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I2">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J2">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>12.28197545224953</v>
+        <v>12.3612732521805</v>
       </c>
       <c r="R2">
-        <v>12.28197545224953</v>
+        <v>49.445093008722</v>
       </c>
       <c r="S2">
-        <v>0.01929836729633444</v>
+        <v>0.01763844196536348</v>
       </c>
       <c r="T2">
-        <v>0.01929836729633444</v>
+        <v>0.01117216798438809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H3">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I3">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J3">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>28.46652873806883</v>
+        <v>30.46565018459966</v>
       </c>
       <c r="R3">
-        <v>28.46652873806883</v>
+        <v>182.793901107598</v>
       </c>
       <c r="S3">
-        <v>0.04472875958551872</v>
+        <v>0.04347178415648537</v>
       </c>
       <c r="T3">
-        <v>0.04472875958551872</v>
+        <v>0.04130246391356708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H4">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I4">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J4">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>6.517762785105745</v>
+        <v>6.861165118719999</v>
       </c>
       <c r="R4">
-        <v>6.517762785105745</v>
+        <v>41.16699071231999</v>
       </c>
       <c r="S4">
-        <v>0.01024120107277307</v>
+        <v>0.009790274860235072</v>
       </c>
       <c r="T4">
-        <v>0.01024120107277307</v>
+        <v>0.009301722530254996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H5">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I5">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J5">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>6.909356898463519</v>
+        <v>7.027560055670333</v>
       </c>
       <c r="R5">
-        <v>6.909356898463519</v>
+        <v>42.165360334022</v>
       </c>
       <c r="S5">
-        <v>0.01085650331466744</v>
+        <v>0.01002770569594701</v>
       </c>
       <c r="T5">
-        <v>0.01085650331466744</v>
+        <v>0.009527305140084392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H6">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I6">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J6">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>11.48208124679843</v>
+        <v>12.22495482830566</v>
       </c>
       <c r="R6">
-        <v>11.48208124679843</v>
+        <v>73.34972896983399</v>
       </c>
       <c r="S6">
-        <v>0.01804151311721478</v>
+        <v>0.01744392764962324</v>
       </c>
       <c r="T6">
-        <v>0.01804151311721478</v>
+        <v>0.01657344427516335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H7">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I7">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J7">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>17.53357097172226</v>
+        <v>20.193500169295</v>
       </c>
       <c r="R7">
-        <v>17.53357097172226</v>
+        <v>80.77400067718</v>
       </c>
       <c r="S7">
-        <v>0.02755007074750902</v>
+        <v>0.02881433599494598</v>
       </c>
       <c r="T7">
-        <v>0.02755007074750902</v>
+        <v>0.01825096585777171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H8">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J8">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>18.95962947590562</v>
+        <v>20.369341472306</v>
       </c>
       <c r="R8">
-        <v>18.95962947590562</v>
+        <v>122.216048833836</v>
       </c>
       <c r="S8">
-        <v>0.02979080155720554</v>
+        <v>0.02906524595826439</v>
       </c>
       <c r="T8">
-        <v>0.02979080155720554</v>
+        <v>0.02761483789137452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H9">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J9">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>43.94365055013619</v>
+        <v>50.20237148114711</v>
       </c>
       <c r="R9">
-        <v>43.94365055013619</v>
+        <v>451.821343330324</v>
       </c>
       <c r="S9">
-        <v>0.06904758212189492</v>
+        <v>0.07163433716163776</v>
       </c>
       <c r="T9">
-        <v>0.06904758212189492</v>
+        <v>0.1020894822814438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H10">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J10">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>10.06144067767356</v>
+        <v>11.30606955690667</v>
       </c>
       <c r="R10">
-        <v>10.06144067767356</v>
+        <v>101.75462601216</v>
       </c>
       <c r="S10">
-        <v>0.01580929537621418</v>
+        <v>0.01613275976248512</v>
       </c>
       <c r="T10">
-        <v>0.01580929537621418</v>
+        <v>0.02299155903692819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H11">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J11">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>10.66594272403202</v>
+        <v>11.58026099502622</v>
       </c>
       <c r="R11">
-        <v>10.66594272403202</v>
+        <v>104.222348955236</v>
       </c>
       <c r="S11">
-        <v>0.01675913464004975</v>
+        <v>0.01652400665671733</v>
       </c>
       <c r="T11">
-        <v>0.01675913464004975</v>
+        <v>0.02354914349235859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H12">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J12">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>17.72483644002644</v>
+        <v>20.14471117183244</v>
       </c>
       <c r="R12">
-        <v>17.72483644002644</v>
+        <v>181.302400546492</v>
       </c>
       <c r="S12">
-        <v>0.02785060149460179</v>
+        <v>0.02874471841731176</v>
       </c>
       <c r="T12">
-        <v>0.02785060149460179</v>
+        <v>0.04096545787710264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H13">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J13">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>27.06649352181058</v>
+        <v>33.27556086480666</v>
       </c>
       <c r="R13">
-        <v>27.06649352181058</v>
+        <v>199.65336518884</v>
       </c>
       <c r="S13">
-        <v>0.0425289185309426</v>
+        <v>0.04748127779436313</v>
       </c>
       <c r="T13">
-        <v>0.0425289185309426</v>
+        <v>0.04511187660511905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H14">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I14">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J14">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>4.439802102279793</v>
+        <v>0.885457004304</v>
       </c>
       <c r="R14">
-        <v>4.439802102279793</v>
+        <v>5.312742025824</v>
       </c>
       <c r="S14">
-        <v>0.006976152332004553</v>
+        <v>0.001263468711080043</v>
       </c>
       <c r="T14">
-        <v>0.006976152332004553</v>
+        <v>0.001200419349191111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H15">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I15">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J15">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>10.29034414107526</v>
+        <v>2.182301353290667</v>
       </c>
       <c r="R15">
-        <v>10.29034414107526</v>
+        <v>19.640712179616</v>
       </c>
       <c r="S15">
-        <v>0.01616896578341401</v>
+        <v>0.003113950722201021</v>
       </c>
       <c r="T15">
-        <v>0.01616896578341401</v>
+        <v>0.004437838467913899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H16">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I16">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J16">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>2.356101184860564</v>
+        <v>0.49147580416</v>
       </c>
       <c r="R16">
-        <v>2.356101184860564</v>
+        <v>4.42328223744</v>
       </c>
       <c r="S16">
-        <v>0.003702084101172828</v>
+        <v>0.0007012924374539931</v>
       </c>
       <c r="T16">
-        <v>0.003702084101172828</v>
+        <v>0.0009994450246118968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H17">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I17">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J17">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>2.497658247442692</v>
+        <v>0.5033949292693334</v>
       </c>
       <c r="R17">
-        <v>2.497658247442692</v>
+        <v>4.530554363424001</v>
       </c>
       <c r="S17">
-        <v>0.003924509247495664</v>
+        <v>0.0007182999731851363</v>
       </c>
       <c r="T17">
-        <v>0.003924509247495664</v>
+        <v>0.00102368326825974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H18">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I18">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J18">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>4.15064894538167</v>
+        <v>0.8756923060586665</v>
       </c>
       <c r="R18">
-        <v>4.15064894538167</v>
+        <v>7.881230754528</v>
       </c>
       <c r="S18">
-        <v>0.006521813056664888</v>
+        <v>0.001249535351644015</v>
       </c>
       <c r="T18">
-        <v>0.006521813056664888</v>
+        <v>0.001780771934189316</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H19">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I19">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J19">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N19">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O19">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P19">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q19">
-        <v>6.338197431136084</v>
+        <v>1.44649145776</v>
       </c>
       <c r="R19">
-        <v>6.338197431136084</v>
+        <v>8.67894874656</v>
       </c>
       <c r="S19">
-        <v>0.009959054428849584</v>
+        <v>0.002064015179552253</v>
       </c>
       <c r="T19">
-        <v>0.009959054428849584</v>
+        <v>0.001961017108560374</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H20">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I20">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J20">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N20">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O20">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P20">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q20">
-        <v>12.20230284503507</v>
+        <v>4.477186669397</v>
       </c>
       <c r="R20">
-        <v>12.20230284503507</v>
+        <v>26.863120016382</v>
       </c>
       <c r="S20">
-        <v>0.01917317967945155</v>
+        <v>0.006388548786616928</v>
       </c>
       <c r="T20">
-        <v>0.01917317967945155</v>
+        <v>0.006069748708023614</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H21">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I21">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J21">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N21">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P21">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q21">
-        <v>28.28186768156982</v>
+        <v>11.03449459439311</v>
       </c>
       <c r="R21">
-        <v>28.28186768156982</v>
+        <v>99.310451349538</v>
       </c>
       <c r="S21">
-        <v>0.04443860618898231</v>
+        <v>0.01574524634717443</v>
       </c>
       <c r="T21">
-        <v>0.04443860618898231</v>
+        <v>0.02243929533890701</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H22">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I22">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J22">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N22">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O22">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P22">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q22">
-        <v>6.475482359101503</v>
+        <v>2.485077093546666</v>
       </c>
       <c r="R22">
-        <v>6.475482359101503</v>
+        <v>22.36569384192</v>
       </c>
       <c r="S22">
-        <v>0.01017476687465505</v>
+        <v>0.003545984883575406</v>
       </c>
       <c r="T22">
-        <v>0.01017476687465505</v>
+        <v>0.00505355078703659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H23">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I23">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J23">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N23">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O23">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P23">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q23">
-        <v>6.864536219541304</v>
+        <v>2.545344444520222</v>
       </c>
       <c r="R23">
-        <v>6.864536219541304</v>
+        <v>22.908100000682</v>
       </c>
       <c r="S23">
-        <v>0.01078607767933908</v>
+        <v>0.003631981054913641</v>
       </c>
       <c r="T23">
-        <v>0.01078607767933908</v>
+        <v>0.00517610799853555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H24">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I24">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J24">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N24">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O24">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P24">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q24">
-        <v>11.407597516332</v>
+        <v>4.427812869650444</v>
       </c>
       <c r="R24">
-        <v>11.407597516332</v>
+        <v>39.85031582685399</v>
       </c>
       <c r="S24">
-        <v>0.0179244786553132</v>
+        <v>0.006318096747925406</v>
       </c>
       <c r="T24">
-        <v>0.0179244786553132</v>
+        <v>0.009004218529227913</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H25">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I25">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J25">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N25">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O25">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P25">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q25">
-        <v>17.41983150704672</v>
+        <v>7.313977122096666</v>
       </c>
       <c r="R25">
-        <v>17.41983150704672</v>
+        <v>43.88386273258</v>
       </c>
       <c r="S25">
-        <v>0.02737135471164568</v>
+        <v>0.01043639747882296</v>
       </c>
       <c r="T25">
-        <v>0.02737135471164568</v>
+        <v>0.009915602467685275</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H26">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I26">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J26">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N26">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O26">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P26">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q26">
-        <v>46.07522741375559</v>
+        <v>12.837816546256</v>
       </c>
       <c r="R26">
-        <v>46.07522741375559</v>
+        <v>77.02689927753599</v>
       </c>
       <c r="S26">
-        <v>0.07239687665471876</v>
+        <v>0.01831842703365337</v>
       </c>
       <c r="T26">
-        <v>0.07239687665471876</v>
+        <v>0.01740430456654967</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H27">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I27">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J27">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N27">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P27">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q27">
-        <v>106.7907838104742</v>
+        <v>31.64014095095822</v>
       </c>
       <c r="R27">
-        <v>106.7907838104742</v>
+        <v>284.761268558624</v>
       </c>
       <c r="S27">
-        <v>0.1677977437628333</v>
+        <v>0.04514767844331512</v>
       </c>
       <c r="T27">
-        <v>0.1677977437628333</v>
+        <v>0.06434209209037599</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H28">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I28">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J28">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N28">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O28">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P28">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q28">
-        <v>24.4510668271737</v>
+        <v>7.125672031573332</v>
       </c>
       <c r="R28">
-        <v>24.4510668271737</v>
+        <v>64.13104828415999</v>
       </c>
       <c r="S28">
-        <v>0.03841936260600417</v>
+        <v>0.0101677027947707</v>
       </c>
       <c r="T28">
-        <v>0.03841936260600417</v>
+        <v>0.01449047419769547</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H29">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I29">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J29">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N29">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O29">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P29">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q29">
-        <v>25.92011290180519</v>
+        <v>7.298481711548444</v>
       </c>
       <c r="R29">
-        <v>25.92011290180519</v>
+        <v>65.686335403936</v>
       </c>
       <c r="S29">
-        <v>0.0407276387325685</v>
+        <v>0.01041428690055902</v>
       </c>
       <c r="T29">
-        <v>0.0407276387325685</v>
+        <v>0.01484189287058638</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H30">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I30">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J30">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N30">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O30">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P30">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q30">
-        <v>43.07446360614235</v>
+        <v>12.69624286837689</v>
       </c>
       <c r="R30">
-        <v>43.07446360614235</v>
+        <v>114.266185815392</v>
       </c>
       <c r="S30">
-        <v>0.06768184995937873</v>
+        <v>0.01811641393596108</v>
       </c>
       <c r="T30">
-        <v>0.06768184995937873</v>
+        <v>0.02581855842883485</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.606304</v>
+      </c>
+      <c r="I31">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J31">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>20.97198608197333</v>
+      </c>
+      <c r="R31">
+        <v>125.83191649184</v>
+      </c>
+      <c r="S31">
+        <v>0.02992516643380936</v>
+      </c>
+      <c r="T31">
+        <v>0.02843184678803916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.331586</v>
+      </c>
+      <c r="H32">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J32">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.6794795</v>
+      </c>
+      <c r="N32">
+        <v>21.358959</v>
+      </c>
+      <c r="O32">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P32">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q32">
+        <v>46.25908388948699</v>
+      </c>
+      <c r="R32">
+        <v>185.036335557948</v>
+      </c>
+      <c r="S32">
+        <v>0.06600761506600203</v>
+      </c>
+      <c r="T32">
+        <v>0.04180914420980739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.331586</v>
+      </c>
+      <c r="H33">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J33">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P33">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q33">
+        <v>114.010348196822</v>
+      </c>
+      <c r="R33">
+        <v>684.0620891809319</v>
+      </c>
+      <c r="S33">
+        <v>0.1626826678041276</v>
+      </c>
+      <c r="T33">
+        <v>0.154564509985505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.331586</v>
+      </c>
+      <c r="H34">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J34">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.92768</v>
+      </c>
+      <c r="N34">
+        <v>17.78304</v>
+      </c>
+      <c r="O34">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P34">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q34">
+        <v>25.67625570048</v>
+      </c>
+      <c r="R34">
+        <v>154.05753420288</v>
+      </c>
+      <c r="S34">
+        <v>0.03663774247372626</v>
+      </c>
+      <c r="T34">
+        <v>0.03480945320644013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.331586</v>
+      </c>
+      <c r="H35">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J35">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.214309</v>
+      </c>
+      <c r="O35">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P35">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q35">
+        <v>26.298948621358</v>
+      </c>
+      <c r="R35">
+        <v>157.793691728148</v>
+      </c>
+      <c r="S35">
+        <v>0.03752627011348311</v>
+      </c>
+      <c r="T35">
+        <v>0.03565364171835307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="H31">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="I31">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="J31">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N31">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O31">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P31">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q31">
-        <v>65.77632995914844</v>
-      </c>
-      <c r="R31">
-        <v>65.77632995914844</v>
-      </c>
-      <c r="S31">
-        <v>0.1033527366905817</v>
-      </c>
-      <c r="T31">
-        <v>0.1033527366905817</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.331586</v>
+      </c>
+      <c r="H36">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J36">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N36">
+        <v>31.685123</v>
+      </c>
+      <c r="O36">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P36">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q36">
+        <v>45.74894506502599</v>
+      </c>
+      <c r="R36">
+        <v>274.493670390156</v>
+      </c>
+      <c r="S36">
+        <v>0.06527969215175475</v>
+      </c>
+      <c r="T36">
+        <v>0.06202211806354819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.331586</v>
+      </c>
+      <c r="H37">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J37">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.446105</v>
+      </c>
+      <c r="N37">
+        <v>34.89221</v>
+      </c>
+      <c r="O37">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P37">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q37">
+        <v>75.56930417253</v>
+      </c>
+      <c r="R37">
+        <v>302.27721669012</v>
+      </c>
+      <c r="S37">
+        <v>0.1078307031013125</v>
+      </c>
+      <c r="T37">
+        <v>0.06829983800656594</v>
       </c>
     </row>
   </sheetData>
